--- a/ticket_management/tickets.xlsx
+++ b/ticket_management/tickets.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
   <si>
     <t>TicketId</t>
   </si>
@@ -31,10 +31,10 @@
     <t/>
   </si>
   <si>
+    <t>11/03/2021</t>
+  </si>
+  <si>
     <t>text updated one</t>
-  </si>
-  <si>
-    <t>this is testing ticket</t>
   </si>
 </sst>
 </file>
@@ -73,10 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,8 +415,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -443,8 +448,8 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
-        <v>44266.53135416667</v>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -457,8 +462,8 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
-        <v>44266.53196759259</v>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -471,8 +476,8 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
-        <v>44266.53245370371</v>
+      <c r="D4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -485,8 +490,8 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2">
-        <v>44266.53245370371</v>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -497,80 +502,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
-      </c>
-      <c r="D6" s="2">
-        <v>44266.53246527778</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2">
-        <v>44267.22991898148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44267.23819444445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2">
-        <v>44267.23893518519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2">
-        <v>44267.23931712963</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2">
-        <v>44267.23959490741</v>
       </c>
     </row>
   </sheetData>
